--- a/similarities/split_global/harmonic_similarity_timestamps_218.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_218.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,728 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>isophonics_224</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>isophonics_259</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min', 'F:7/C', 'A#']]</t>
+          <t>['A', 'D', 'E']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['C:min', 'F:7/A', 'A#:maj']]</t>
+          <t>['A', 'D', 'E']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:04:11.500000', '0:04:17.660000'), ('0:00:38.200000', '0:00:41.060000')]</t>
+          <t>('0:00:00.366281', '0:00:07.262606')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:07.840000'), ('0:00:27.940000', '0:00:33.160000')]</t>
+          <t>('0:00:47.187000', '0:00:57.707000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=38.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=0.366281</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=27.94']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:00:06.726778', '0:00:13.147096')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:10.060000', '0:01:20.280000')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:15.780000', '0:00:21.280000')]</t>
+          <t>('0:00:55.400000', '0:01:03.680000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
+          <t>('0:00:17.840000', '0:00:26.980000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=55.4</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=17.84</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_12</t>
+          <t>jaah_56</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>jaah_81</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['Ab', 'F:7', 'Bb:min7']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['F/5', 'D:7', 'G:min7']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:30.060000', '0:00:43.780000')]</t>
+          <t>('0:00:15.380000', '0:00:17.020000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:34.780000', '0:01:54.140000')]</t>
+          <t>('0:00:09.460000', '0:00:12.130000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-12#t=30.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=15.38</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=94.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-81#t=9.46</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_42</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_39</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
+          <t>['D:min', 'A:(3,5,b7,b9)', 'D:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
+          <t>['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
+          <t>('0:01:38.700000', '0:01:58.800000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+          <t>('0:00:27.160000', '0:00:38.460000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-42#t=20.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=98.7</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=57.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-39#t=27.16</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:00:17.480000', '0:00:19.720000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:15.880000', '0:00:17.370000')]</t>
+          <t>('0:00:15.730000', '0:00:17.850000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=17.48</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=15.88']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=15.73</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>isophonics_162</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['D/5', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F/A', 'C:7/G', 'F/A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:03.240000', '0:01:04.620000')]</t>
+          <t>('0:01:22.297891', '0:01:32.619160')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:25.220000', '0:00:27.170000')]</t>
+          <t>('0:04:41.620000', '0:04:43.600000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=82.297891</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=281.62</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:56.760000', '0:01:02.320000')]</t>
+          <t>('0:00:01.829138', '0:00:15.586961')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:42.400000', '0:02:01.440000')]</t>
+          <t>('0:02:18.800000', '0:02:24.460000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=56.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=102.4']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['B:min', 'E:7/G#', 'A:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['C:min', 'F:7/C', 'A#']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:44', '0:01:01.060000')]</t>
+          <t>('0:00:36.300000', '0:00:43.280000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:05.280000', '0:01:14.480000')]</t>
+          <t>('0:00:43.120000', '0:00:46.120000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=44.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=36.3</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=43.12</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_97</t>
+          <t>isophonics_194</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D#:min', 'G#:7/D#', 'C#']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:50.280000', '0:00:53.220000')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:09.330793', '0:00:22.635827')]</t>
+          <t>('0:02:24.085784', '0:02:29.240614')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=50.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-97#t=9.330793']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=144.085784</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>jaah_16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['F:7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['B:7', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+          <t>('0:00:04.830000', '0:00:07.280000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:08.760000', '0:02:14')]</t>
+          <t>('0:00:42.960000', '0:00:45.780000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=4.83</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=42.96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_4</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab/3']]</t>
+          <t>['A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E:min7', 'A:7', 'D']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:24.460000', '0:00:30.010000')]</t>
+          <t>('0:00:41.840000', '0:00:45.380000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:32.032000', '0:00:39.805000')]</t>
+          <t>('0:01:45.840000', '0:02:00.500000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=24.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=41.84</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=32.032']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=105.84</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'F:7']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min', 'B:7/A']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:11.890000', '0:00:19.531000')]</t>
+          <t>('0:00:33.140000', '0:00:37.240000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:13.180000', '0:00:20.260000')]</t>
+          <t>('0:00:31.600000', '0:00:33.800000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=11.89']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=33.14</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=31.6</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C', 'Bb/5', 'F']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E/4', 'D/5', 'A']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:31.217551', '0:00:34.874693')]</t>
+          <t>('0:01:12.640000', '0:01:23.380000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:09.172000', '0:00:14.409000')]</t>
+          <t>('0:00:00.800000', '0:00:09.280000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-244#t=31.217551']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=9.172']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.260000'), ('0:00:08.200000', '0:00:12.660000')]</t>
+          <t>('0:00:00.340000', '0:00:04.840000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:02.640000', '0:00:07.300000'), ('0:02:10.840000', '0:02:15.980000')]</t>
+          <t>('0:00:00.980000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=0.34</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1172,6 +1214,8 @@
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
